--- a/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.3.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.3.xlsx
@@ -864,7 +864,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="92D8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8D07" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -934,7 +934,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="97BE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A48F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -1120,7 +1120,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9B30" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D12F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1209,7 +1209,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D292" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="81E5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1430,7 +1430,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BAC0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A949" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -1524,7 +1524,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C528" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F35B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.3.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.3.xlsx
@@ -864,7 +864,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="8D07" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E824" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -934,7 +934,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A48F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E102" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -1120,7 +1120,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D12F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D123" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1209,7 +1209,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="81E5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DC98" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1430,7 +1430,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A949" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="87B9" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -1524,7 +1524,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F35B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EB8C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.3.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.3.xlsx
@@ -864,7 +864,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="E824" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9C0E" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -934,7 +934,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E102" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8936" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -1120,7 +1120,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D123" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8636" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1209,7 +1209,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DC98" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9932" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1430,7 +1430,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="87B9" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9CFC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -1524,7 +1524,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EB8C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E5AC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.3.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.3.xlsx
@@ -864,7 +864,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="9C0E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="82C3" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -934,7 +934,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8936" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DD6C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -1120,7 +1120,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8636" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C756" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1209,7 +1209,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9932" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F0C6" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1430,7 +1430,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9CFC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AF41" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -1524,7 +1524,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E5AC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A1F0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.3.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.3.xlsx
@@ -864,7 +864,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="82C3" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9FC2" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -934,7 +934,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DD6C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D648" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -1120,7 +1120,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C756" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E94B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1209,7 +1209,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F0C6" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AA26" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1430,7 +1430,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AF41" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9A46" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -1524,7 +1524,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A1F0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="905C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.3.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.3.xlsx
@@ -864,7 +864,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="9FC2" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="ADEE" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -934,7 +934,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D648" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F0CC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -1120,7 +1120,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E94B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8105" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1209,7 +1209,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AA26" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FE2B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1430,7 +1430,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9A46" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E204" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -1524,7 +1524,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="905C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F699" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.3.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.3.xlsx
@@ -864,7 +864,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="ADEE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D95D" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -934,7 +934,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F0CC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8B61" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -1120,7 +1120,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8105" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A099" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1209,7 +1209,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FE2B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DAE4" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1430,7 +1430,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E204" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="91C0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -1524,7 +1524,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F699" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="ADA0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.3.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.3.xlsx
@@ -864,7 +864,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="D95D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FD13" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -934,7 +934,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8B61" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="981C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -1120,7 +1120,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A099" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D8EA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1209,7 +1209,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DAE4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EF61" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1430,7 +1430,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="91C0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E512" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -1524,7 +1524,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="ADA0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8934" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.3.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.3.xlsx
@@ -864,7 +864,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="FD13" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F893" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -934,7 +934,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="981C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D514" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -1120,7 +1120,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D8EA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8F1A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1209,7 +1209,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EF61" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FF86" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1430,7 +1430,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E512" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8465" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -1524,7 +1524,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8934" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A860" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.3.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.3.xlsx
@@ -864,7 +864,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="F893" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A7CD" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -934,7 +934,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D514" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DC4D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -1120,7 +1120,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8F1A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9C45" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1209,7 +1209,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FF86" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="85C6" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1430,7 +1430,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8465" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FF67" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -1524,7 +1524,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A860" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="ACCA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.3.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_fish_dwc_v0.3.xlsx
@@ -864,7 +864,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="A7CD" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="93D1" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -934,7 +934,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DC4D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FF93" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -1120,7 +1120,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9C45" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E0C0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1209,7 +1209,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="85C6" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9CB0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1430,7 +1430,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FF67" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8238" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -1524,7 +1524,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="ACCA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8B60" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
